--- a/data/KIOSC_Finance_Data.xlsx
+++ b/data/KIOSC_Finance_Data.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allen\OneDrive\Documents\SWIN MIT\25 Sem1\ICT80004 Intership Project\Week6\kiosc-finance-dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36F59D5-6388-48AD-8B6A-B9ABEA5A08AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66663763-2BD8-4630-98B3-B63D8D8EAEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="195" windowWidth="21600" windowHeight="12690" activeTab="1" xr2:uid="{11C1B769-4CC9-4A4A-9D67-7EBEBE7CF71C}"/>
+    <workbookView xWindow="13590" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{11C1B769-4CC9-4A4A-9D67-7EBEBE7CF71C}"/>
   </bookViews>
   <sheets>
     <sheet name="Programs" sheetId="1" r:id="rId1"/>
     <sheet name="Budget_Tracking" sheetId="2" r:id="rId2"/>
     <sheet name="Transaction_Entry" sheetId="3" r:id="rId3"/>
     <sheet name="Suppliers" sheetId="4" r:id="rId4"/>
+    <sheet name="Users" sheetId="5" r:id="rId5"/>
+    <sheet name="Invoices" sheetId="6" r:id="rId6"/>
+    <sheet name="AuditLog" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="534">
   <si>
     <t>id</t>
   </si>
@@ -1317,6 +1320,330 @@
   </si>
   <si>
     <t>accountType</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>permissions</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>lastLogin</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>userCode</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>admin@kiosc.com</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Read,Write,Delete,Admin</t>
+  </si>
+  <si>
+    <t>2025-04-10T14:32:15</t>
+  </si>
+  <si>
+    <t>KIOSC</t>
+  </si>
+  <si>
+    <t>jsmith</t>
+  </si>
+  <si>
+    <t>jsmith@kiosc.com</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Read,Write</t>
+  </si>
+  <si>
+    <t>2025-04-12T09:15:30</t>
+  </si>
+  <si>
+    <t>Swinburne</t>
+  </si>
+  <si>
+    <t>mjohnson</t>
+  </si>
+  <si>
+    <t>Mary Johnson</t>
+  </si>
+  <si>
+    <t>mjohnson@kiosc.com</t>
+  </si>
+  <si>
+    <t>Viewer</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>2025-04-11T11:42:18</t>
+  </si>
+  <si>
+    <t>tdavis</t>
+  </si>
+  <si>
+    <t>Thomas Davis</t>
+  </si>
+  <si>
+    <t>tdavis@kiosc.com</t>
+  </si>
+  <si>
+    <t>2025-03-20T16:08:45</t>
+  </si>
+  <si>
+    <t>Department of Education</t>
+  </si>
+  <si>
+    <t>awalker</t>
+  </si>
+  <si>
+    <t>Alice Walker</t>
+  </si>
+  <si>
+    <t>awalker@kiosc.com</t>
+  </si>
+  <si>
+    <t>2025-04-14T10:28:52</t>
+  </si>
+  <si>
+    <t>Lisa Williams</t>
+  </si>
+  <si>
+    <t>invoiceNumber</t>
+  </si>
+  <si>
+    <t>dueDate</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>subtotal</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>createdAt</t>
+  </si>
+  <si>
+    <t>INV-2025-001</t>
+  </si>
+  <si>
+    <t>Technology Outreach Program</t>
+  </si>
+  <si>
+    <t>[{"description":"Workshop Facilitation","quantity":2,"unitPrice":2500,"amount":5000},{"description":"Materials and Resources","quantity":1,"unitPrice":1500,"amount":1500}]</t>
+  </si>
+  <si>
+    <t>Initial payment for Q1 workshops</t>
+  </si>
+  <si>
+    <t>INV-2025-002</t>
+  </si>
+  <si>
+    <t>STEM Curriculum Development</t>
+  </si>
+  <si>
+    <t>[{"description":"Curriculum Development Services","quantity":1,"unitPrice":8500,"amount":8500},{"description":"Teacher Training Workshop","quantity":1,"unitPrice":3000,"amount":3000}]</t>
+  </si>
+  <si>
+    <t>Phase 1 curriculum development</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>INV-2025-003</t>
+  </si>
+  <si>
+    <t>Melbourne High School</t>
+  </si>
+  <si>
+    <t>[{"description":"Robotics Workshop","quantity":1,"unitPrice":3500,"amount":3500},{"description":"Equipment Rental","quantity":1,"unitPrice":1200,"amount":1200}]</t>
+  </si>
+  <si>
+    <t>STEM week activities</t>
+  </si>
+  <si>
+    <t>Sent</t>
+  </si>
+  <si>
+    <t>INV-2025-004</t>
+  </si>
+  <si>
+    <t>Sydney Technical College</t>
+  </si>
+  <si>
+    <t>[{"description":"Learning Materials Development","quantity":1,"unitPrice":5000,"amount":5000}]</t>
+  </si>
+  <si>
+    <t>Technical curriculum modules</t>
+  </si>
+  <si>
+    <t>Overdue</t>
+  </si>
+  <si>
+    <t>INV-2025-005</t>
+  </si>
+  <si>
+    <t>Brisbane Science Academy</t>
+  </si>
+  <si>
+    <t>[{"description":"Virtual Reality Workshop","quantity":2,"unitPrice":2000,"amount":4000},{"description":"VR Equipment Rental","quantity":10,"unitPrice":200,"amount":2000}]</t>
+  </si>
+  <si>
+    <t>Two-day immersive learning experience</t>
+  </si>
+  <si>
+    <t>Draft</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>2025-04-15T09:30:00</t>
+  </si>
+  <si>
+    <t>CREATE</t>
+  </si>
+  <si>
+    <t>Created new program</t>
+  </si>
+  <si>
+    <t>Technology Outreach Program with budget $150000</t>
+  </si>
+  <si>
+    <t>2025-04-15T10:15:00</t>
+  </si>
+  <si>
+    <t>UPDATE</t>
+  </si>
+  <si>
+    <t>Updated supplier information</t>
+  </si>
+  <si>
+    <t>Updated contact details for Tech Solutions Inc.</t>
+  </si>
+  <si>
+    <t>2025-04-14T14:22:35</t>
+  </si>
+  <si>
+    <t>Created new invoice</t>
+  </si>
+  <si>
+    <t>Invoice #INV-2025-005 for Brisbane Science Academy</t>
+  </si>
+  <si>
+    <t>2025-04-14T11:05:42</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>Deleted draft invoice</t>
+  </si>
+  <si>
+    <t>Removed draft invoice #INV-2025-006 for potential client</t>
+  </si>
+  <si>
+    <t>2025-04-13T16:48:10</t>
+  </si>
+  <si>
+    <t>Updated user permissions</t>
+  </si>
+  <si>
+    <t>Added write permissions for user tdavis</t>
+  </si>
+  <si>
+    <t>2025-04-13T09:12:55</t>
+  </si>
+  <si>
+    <t>LOGIN</t>
+  </si>
+  <si>
+    <t>User login</t>
+  </si>
+  <si>
+    <t>Successful login from IP 192.168.1.105</t>
+  </si>
+  <si>
+    <t>2025-04-12T15:30:22</t>
+  </si>
+  <si>
+    <t>PAYMENT</t>
+  </si>
+  <si>
+    <t>Recorded payment for invoice</t>
+  </si>
+  <si>
+    <t>Payment of $7150 received for INV-2025-001</t>
+  </si>
+  <si>
+    <t>2025-04-11T10:45:33</t>
+  </si>
+  <si>
+    <t>BACKUP</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>Automatic system backup</t>
+  </si>
+  <si>
+    <t>Daily backup completed successfully</t>
+  </si>
+  <si>
+    <t>2025-04-10T14:20:18</t>
+  </si>
+  <si>
+    <t>SEND</t>
+  </si>
+  <si>
+    <t>Sent invoice email</t>
+  </si>
+  <si>
+    <t>Invoice #INV-2025-003 emailed to Melbourne High School</t>
+  </si>
+  <si>
+    <t>2025-04-10T09:05:45</t>
+  </si>
+  <si>
+    <t>Added new user</t>
+  </si>
+  <si>
+    <t>Created user account for awalker with Admin role</t>
   </si>
 </sst>
 </file>
@@ -2730,7 +3057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A26017-2876-407F-B115-C31951F921A7}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -5384,4 +5711,733 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACEB89C-34FB-4667-8985-8873E3DB5EAC}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1" t="s">
+        <v>430</v>
+      </c>
+      <c r="I1" t="s">
+        <v>431</v>
+      </c>
+      <c r="J1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E2" t="s">
+        <v>435</v>
+      </c>
+      <c r="F2" t="s">
+        <v>436</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>437</v>
+      </c>
+      <c r="I2" t="s">
+        <v>438</v>
+      </c>
+      <c r="J2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E3" t="s">
+        <v>441</v>
+      </c>
+      <c r="F3" t="s">
+        <v>442</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>443</v>
+      </c>
+      <c r="I3" t="s">
+        <v>444</v>
+      </c>
+      <c r="J3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C4" t="s">
+        <v>446</v>
+      </c>
+      <c r="D4" t="s">
+        <v>447</v>
+      </c>
+      <c r="E4" t="s">
+        <v>448</v>
+      </c>
+      <c r="F4" t="s">
+        <v>449</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>450</v>
+      </c>
+      <c r="I4" t="s">
+        <v>438</v>
+      </c>
+      <c r="J4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D5" t="s">
+        <v>453</v>
+      </c>
+      <c r="E5" t="s">
+        <v>441</v>
+      </c>
+      <c r="F5" t="s">
+        <v>442</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>454</v>
+      </c>
+      <c r="I5" t="s">
+        <v>455</v>
+      </c>
+      <c r="J5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D6" t="s">
+        <v>458</v>
+      </c>
+      <c r="E6" t="s">
+        <v>435</v>
+      </c>
+      <c r="F6" t="s">
+        <v>436</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>459</v>
+      </c>
+      <c r="I6" t="s">
+        <v>438</v>
+      </c>
+      <c r="J6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50186836-6958-4425-9E7F-C831483BD420}">
+  <dimension ref="A1:O6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="167.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H1" t="s">
+        <v>465</v>
+      </c>
+      <c r="I1" t="s">
+        <v>466</v>
+      </c>
+      <c r="J1" t="s">
+        <v>467</v>
+      </c>
+      <c r="K1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" t="s">
+        <v>398</v>
+      </c>
+      <c r="M1" t="s">
+        <v>404</v>
+      </c>
+      <c r="N1" t="s">
+        <v>468</v>
+      </c>
+      <c r="O1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45731</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45761</v>
+      </c>
+      <c r="E2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G2" t="s">
+        <v>471</v>
+      </c>
+      <c r="H2">
+        <v>6500</v>
+      </c>
+      <c r="I2">
+        <v>650</v>
+      </c>
+      <c r="J2">
+        <v>7150</v>
+      </c>
+      <c r="K2" t="s">
+        <v>472</v>
+      </c>
+      <c r="L2" t="s">
+        <v>413</v>
+      </c>
+      <c r="M2" s="1">
+        <v>45748</v>
+      </c>
+      <c r="N2" s="1">
+        <v>45726</v>
+      </c>
+      <c r="O2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45736</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45766</v>
+      </c>
+      <c r="E3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F3" t="s">
+        <v>474</v>
+      </c>
+      <c r="G3" t="s">
+        <v>475</v>
+      </c>
+      <c r="H3">
+        <v>11500</v>
+      </c>
+      <c r="I3">
+        <v>1150</v>
+      </c>
+      <c r="J3">
+        <v>12650</v>
+      </c>
+      <c r="K3" t="s">
+        <v>476</v>
+      </c>
+      <c r="L3" t="s">
+        <v>477</v>
+      </c>
+      <c r="N3" s="1">
+        <v>45734</v>
+      </c>
+      <c r="O3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45741</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45771</v>
+      </c>
+      <c r="E4" t="s">
+        <v>479</v>
+      </c>
+      <c r="F4" t="s">
+        <v>470</v>
+      </c>
+      <c r="G4" t="s">
+        <v>480</v>
+      </c>
+      <c r="H4">
+        <v>4700</v>
+      </c>
+      <c r="I4">
+        <v>470</v>
+      </c>
+      <c r="J4">
+        <v>5170</v>
+      </c>
+      <c r="K4" t="s">
+        <v>481</v>
+      </c>
+      <c r="L4" t="s">
+        <v>482</v>
+      </c>
+      <c r="N4" s="1">
+        <v>45738</v>
+      </c>
+      <c r="O4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45703</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45733</v>
+      </c>
+      <c r="E5" t="s">
+        <v>484</v>
+      </c>
+      <c r="F5" t="s">
+        <v>474</v>
+      </c>
+      <c r="G5" t="s">
+        <v>485</v>
+      </c>
+      <c r="H5">
+        <v>5000</v>
+      </c>
+      <c r="I5">
+        <v>500</v>
+      </c>
+      <c r="J5">
+        <v>5500</v>
+      </c>
+      <c r="K5" t="s">
+        <v>486</v>
+      </c>
+      <c r="L5" t="s">
+        <v>487</v>
+      </c>
+      <c r="N5" s="1">
+        <v>45698</v>
+      </c>
+      <c r="O5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45748</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45778</v>
+      </c>
+      <c r="E6" t="s">
+        <v>489</v>
+      </c>
+      <c r="F6" t="s">
+        <v>470</v>
+      </c>
+      <c r="G6" t="s">
+        <v>490</v>
+      </c>
+      <c r="H6">
+        <v>6000</v>
+      </c>
+      <c r="I6">
+        <v>600</v>
+      </c>
+      <c r="J6">
+        <v>6600</v>
+      </c>
+      <c r="K6" t="s">
+        <v>491</v>
+      </c>
+      <c r="L6" t="s">
+        <v>492</v>
+      </c>
+      <c r="N6" s="1">
+        <v>45746</v>
+      </c>
+      <c r="O6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF00E93-C426-4624-BDA8-394E76972B17}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D3" t="s">
+        <v>502</v>
+      </c>
+      <c r="E3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>504</v>
+      </c>
+      <c r="B4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4" t="s">
+        <v>505</v>
+      </c>
+      <c r="E4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D5" t="s">
+        <v>509</v>
+      </c>
+      <c r="E5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>511</v>
+      </c>
+      <c r="B6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D6" t="s">
+        <v>512</v>
+      </c>
+      <c r="E6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>514</v>
+      </c>
+      <c r="B7" t="s">
+        <v>515</v>
+      </c>
+      <c r="C7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D7" t="s">
+        <v>516</v>
+      </c>
+      <c r="E7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>518</v>
+      </c>
+      <c r="B8" t="s">
+        <v>519</v>
+      </c>
+      <c r="C8" t="s">
+        <v>433</v>
+      </c>
+      <c r="D8" t="s">
+        <v>520</v>
+      </c>
+      <c r="E8" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>522</v>
+      </c>
+      <c r="B9" t="s">
+        <v>523</v>
+      </c>
+      <c r="C9" t="s">
+        <v>524</v>
+      </c>
+      <c r="D9" t="s">
+        <v>525</v>
+      </c>
+      <c r="E9" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>527</v>
+      </c>
+      <c r="B10" t="s">
+        <v>528</v>
+      </c>
+      <c r="C10" t="s">
+        <v>439</v>
+      </c>
+      <c r="D10" t="s">
+        <v>529</v>
+      </c>
+      <c r="E10" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>531</v>
+      </c>
+      <c r="B11" t="s">
+        <v>497</v>
+      </c>
+      <c r="C11" t="s">
+        <v>433</v>
+      </c>
+      <c r="D11" t="s">
+        <v>532</v>
+      </c>
+      <c r="E11" t="s">
+        <v>533</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/KIOSC_Finance_Data.xlsx
+++ b/data/KIOSC_Finance_Data.xlsx
@@ -4518,7 +4518,7 @@
         <v>Two-day immersive learning experience</v>
       </c>
       <c r="L6" t="str">
-        <v>Draft</v>
+        <v>Pending</v>
       </c>
       <c r="N6">
         <v>45746</v>
@@ -4559,7 +4559,7 @@
         <v/>
       </c>
       <c r="L7" t="str">
-        <v>Draft</v>
+        <v>Sent</v>
       </c>
       <c r="N7" t="str">
         <v>2025-04-16</v>
